--- a/Stocks/TATAELXSI.xlsx
+++ b/Stocks/TATAELXSI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1526.2833333333335</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1732.0720740279332</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1703.4268584251831</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>45.666657617827383</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>33.900000000000091</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>2.9498525073746232E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1681.4159860507004</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>30.16226701920391</v>
       </c>
       <c r="Y67">
         <v>31.829759135211344</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1646.8</v>
+      </c>
+      <c r="D83">
+        <v>1685.55</v>
+      </c>
+      <c r="E83">
+        <v>1640</v>
+      </c>
+      <c r="F83">
+        <v>1667</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1664.1833333333334</v>
+      </c>
+      <c r="H83">
+        <v>1652.5058314830633</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1675.4536945627058</v>
+      </c>
+      <c r="K83">
+        <v>1634.8632655131203</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>56.61755368671443</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>27</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>45.549999999999955</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.59275521405049458</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1660.3257102287312</v>
+      </c>
+      <c r="W83">
+        <v>1667.4184561308646</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-7.0927459021334016</v>
+      </c>
+      <c r="Y83">
+        <v>-1.656544731208506</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1668.2</v>
+      </c>
+      <c r="D84">
+        <v>1668.2</v>
+      </c>
+      <c r="E84">
+        <v>1638</v>
+      </c>
+      <c r="F84">
+        <v>1640.15</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1648.7833333333335</v>
+      </c>
+      <c r="H84">
+        <v>1650.6445824081984</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1673.84176243766</v>
+      </c>
+      <c r="K84">
+        <v>1635.5603176213158</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>42.4718184376134</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.1500000000000909</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>30.200000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>7.1192052980135354E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1657.2217548089263</v>
+      </c>
+      <c r="W84">
+        <v>1665.3985704915412</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-8.1768156826149152</v>
+      </c>
+      <c r="Y84">
+        <v>-2.9605989214897881</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1661</v>
+      </c>
+      <c r="D85">
+        <v>1672.05</v>
+      </c>
+      <c r="E85">
+        <v>1650</v>
+      </c>
+      <c r="F85">
+        <v>1660.85</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1660.9666666666665</v>
+      </c>
+      <c r="H85">
+        <v>1655.8056245374323</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1673.4435930070688</v>
+      </c>
+      <c r="K85">
+        <v>1638.7691359276901</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>53.635264534138926</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>10.849999999999909</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>22.049999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.49206349206348893</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1657.7799463767838</v>
+      </c>
+      <c r="W85">
+        <v>1665.0616393440196</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-7.2816929672358128</v>
+      </c>
+      <c r="Y85">
+        <v>-3.8248177306389932</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1662.4</v>
+      </c>
+      <c r="D86">
+        <v>1662.6</v>
+      </c>
+      <c r="E86">
+        <v>1634.4</v>
+      </c>
+      <c r="F86">
+        <v>1644</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1647</v>
+      </c>
+      <c r="H86">
+        <v>1651.4028122687162</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>1671.0339056721646</v>
+      </c>
+      <c r="K86">
+        <v>1637.7982168326478</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>44.791233997105259</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>9.5999999999999091</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>28.199999999999818</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.34042553191489261</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1655.6599546265093</v>
+      </c>
+      <c r="W86">
+        <v>1663.5015179111292</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-7.8415632846199514</v>
+      </c>
+      <c r="Y86">
+        <v>-4.6281668414351849</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1643.8</v>
+      </c>
+      <c r="D87">
+        <v>1671</v>
+      </c>
+      <c r="E87">
+        <v>1640.2</v>
+      </c>
+      <c r="F87">
+        <v>1661.3</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1657.5</v>
+      </c>
+      <c r="H87">
+        <v>1654.451406134358</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1671.0263710783502</v>
+      </c>
+      <c r="K87">
+        <v>1638.3319464253927</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>54.433913784085341</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>21.099999999999909</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>30.799999999999955</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.68506493506493316</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1656.5276539147385</v>
+      </c>
+      <c r="W87">
+        <v>1663.3384425103047</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-6.8107885955662368</v>
+      </c>
+      <c r="Y87">
+        <v>-5.0646911922613951</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1661.6</v>
+      </c>
+      <c r="D88">
+        <v>1736</v>
+      </c>
+      <c r="E88">
+        <v>1653.1</v>
+      </c>
+      <c r="F88">
+        <v>1729</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1706.0333333333335</v>
+      </c>
+      <c r="H88">
+        <v>1680.2423697338459</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1685.4649552831613</v>
+      </c>
+      <c r="K88">
+        <v>1641.6137361086387</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>75.427630188969715</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>75.900000000000091</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>82.900000000000091</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.91556091676718943</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>1667.6772456201634</v>
+      </c>
+      <c r="W88">
+        <v>1668.2022615836154</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-0.52501596345200596</v>
+      </c>
+      <c r="Y88">
+        <v>-4.1567561464995171</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1746</v>
+      </c>
+      <c r="D89">
+        <v>1770</v>
+      </c>
+      <c r="E89">
+        <v>1735.2</v>
+      </c>
+      <c r="F89">
+        <v>1745</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1750.0666666666666</v>
+      </c>
+      <c r="H89">
+        <v>1715.1545182002562</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1704.2505207757922</v>
+      </c>
+      <c r="K89">
+        <v>1662.4106836400524</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>78.37148046934162</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>34.799999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.2816091954022979</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1679.5730539862921</v>
+      </c>
+      <c r="W89">
+        <v>1673.8909829477921</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>5.6820710384999984</v>
+      </c>
+      <c r="Y89">
+        <v>-2.1889907094996137</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1731</v>
+      </c>
+      <c r="D90">
+        <v>1764.9</v>
+      </c>
+      <c r="E90">
+        <v>1722.55</v>
+      </c>
+      <c r="F90">
+        <v>1755</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1747.4833333333333</v>
+      </c>
+      <c r="H90">
+        <v>1731.3189257667948</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1717.7281828256162</v>
+      </c>
+      <c r="K90">
+        <v>1675.7749761644852</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>80.222574434455765</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>32.450000000000045</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>42.350000000000136</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.76623376623376482</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1691.1771995268625</v>
+      </c>
+      <c r="W90">
+        <v>1679.8990582849926</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>11.278141241869889</v>
+      </c>
+      <c r="Y90">
+        <v>0.50443568077428713</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1750</v>
+      </c>
+      <c r="D91">
+        <v>1799</v>
+      </c>
+      <c r="E91">
+        <v>1750</v>
+      </c>
+      <c r="F91">
+        <v>1798</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1782.3333333333333</v>
+      </c>
+      <c r="H91">
+        <v>1756.826129550064</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1735.7885866421459</v>
+      </c>
+      <c r="K91">
+        <v>1692.2694259057107</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>86.454037344754767</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>48</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>49</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>1707.6114765227298</v>
+      </c>
+      <c r="W91">
+        <v>1688.6472761898081</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>18.964200332921791</v>
+      </c>
+      <c r="Y91">
+        <v>4.1963886112037887</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>1755.6000000000001</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>1768.7</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>1774.5</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>1780.3000000000002</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1809.1</v>
+      </c>
+      <c r="D92">
+        <v>1817</v>
+      </c>
+      <c r="E92">
+        <v>1765.55</v>
+      </c>
+      <c r="F92">
+        <v>1778</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1786.8500000000001</v>
+      </c>
+      <c r="H92">
+        <v>1771.8380647750321</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1753.8355673883357</v>
+      </c>
+      <c r="K92">
+        <v>1708.5539979266639</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>73.068859717611872</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>12.450000000000045</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>51.450000000000045</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.24198250728863041</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1718.4404801346175</v>
+      </c>
+      <c r="W92">
+        <v>1695.2659964720444</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>23.174483662573039</v>
+      </c>
+      <c r="Y92">
+        <v>7.9920076214776392</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1783.8</v>
+      </c>
+      <c r="D93">
+        <v>1815</v>
+      </c>
+      <c r="E93">
+        <v>1776.3</v>
+      </c>
+      <c r="F93">
+        <v>1806</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1799.1000000000001</v>
+      </c>
+      <c r="H93">
+        <v>1785.4690323875161</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1767.4276635242611</v>
+      </c>
+      <c r="K93">
+        <v>1723.6086650540719</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>78.810100957184829</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>29.700000000000045</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>38.700000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.76744186046511653</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1731.9111754985224</v>
+      </c>
+      <c r="W93">
+        <v>1703.468515251893</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>28.44266024662943</v>
+      </c>
+      <c r="Y93">
+        <v>12.082138146507997</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1809</v>
+      </c>
+      <c r="D94">
+        <v>1827</v>
+      </c>
+      <c r="E94">
+        <v>1792</v>
+      </c>
+      <c r="F94">
+        <v>1815</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1811.3333333333333</v>
+      </c>
+      <c r="H94">
+        <v>1798.4011828604248</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1780.6659605188697</v>
+      </c>
+      <c r="K94">
+        <v>1738.8067394865004</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>80.481896494140855</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1744.6940715756728</v>
+      </c>
+      <c r="W94">
+        <v>1711.7301067147157</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>32.963964860957049</v>
+      </c>
+      <c r="Y94">
+        <v>16.258503489397807</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1817.8</v>
+      </c>
+      <c r="D95">
+        <v>1839.95</v>
+      </c>
+      <c r="E95">
+        <v>1810</v>
+      </c>
+      <c r="F95">
+        <v>1817.65</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1822.5333333333335</v>
+      </c>
+      <c r="H95">
+        <v>1810.467258096879</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>1793.8401915146765</v>
+      </c>
+      <c r="K95">
+        <v>1754.6274640450558</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>81.03267099913684</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>7.6500000000000909</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>29.950000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.25542570951586241</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1755.9180605640308</v>
+      </c>
+      <c r="W95">
+        <v>1719.5760247358478</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>36.342035828183043</v>
+      </c>
+      <c r="Y95">
+        <v>20.275209957154853</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1822.4</v>
+      </c>
+      <c r="D96">
+        <v>1838</v>
+      </c>
+      <c r="E96">
+        <v>1816.1</v>
+      </c>
+      <c r="F96">
+        <v>1824.85</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1826.3166666666666</v>
+      </c>
+      <c r="H96">
+        <v>1818.3919623817728</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>1803.6534822891929</v>
+      </c>
+      <c r="K96">
+        <v>1768.2880275905989</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>82.69146744727739</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>8.75</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>21.900000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.39954337899543213</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1766.5229743234106</v>
+      </c>
+      <c r="W96">
+        <v>1727.3740969776368</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>39.148877345773826</v>
+      </c>
+      <c r="Y96">
+        <v>24.049943434878649</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1820.4</v>
+      </c>
+      <c r="D97">
+        <v>1835.9</v>
+      </c>
+      <c r="E97">
+        <v>1810</v>
+      </c>
+      <c r="F97">
+        <v>1810</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1818.6333333333332</v>
+      </c>
+      <c r="H97">
+        <v>1818.512647857553</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1810.8193751138167</v>
+      </c>
+      <c r="K97">
+        <v>1777.5573547926881</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>67.477288723877308</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>25.900000000000091</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1773.2117475044245</v>
+      </c>
+      <c r="W97">
+        <v>1733.4945342385527</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>39.717213265871806</v>
+      </c>
+      <c r="Y97">
+        <v>27.183397401077279</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>921.45</v>
+      </c>
+      <c r="D98">
+        <v>921.7</v>
+      </c>
+      <c r="E98">
+        <v>898</v>
+      </c>
+      <c r="F98">
+        <v>901.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>907.06666666666661</v>
+      </c>
+      <c r="H98">
+        <v>1362.7896572621098</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1613.2372917551909</v>
+      </c>
+      <c r="K98">
+        <v>1582.1001648387573</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>4.4775692365072635</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>23.700000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.14767932489451449</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>1639.1022478883592</v>
+      </c>
+      <c r="W98">
+        <v>1671.8653094801414</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-32.763061591782161</v>
+      </c>
+      <c r="Y98">
+        <v>15.19410560250539</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD98">
+        <f t="shared" si="35"/>
+        <v>919</v>
+      </c>
+      <c r="AE98">
+        <f t="shared" si="36"/>
+        <v>912.65000000000009</v>
+      </c>
+      <c r="AF98">
+        <f t="shared" si="37"/>
+        <v>909.85</v>
+      </c>
+      <c r="AG98">
+        <f t="shared" si="38"/>
+        <v>907.05000000000007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>904.45</v>
+      </c>
+      <c r="D99">
+        <v>911.2</v>
+      </c>
+      <c r="E99">
+        <v>881.55</v>
+      </c>
+      <c r="F99">
+        <v>889.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>894.23333333333323</v>
+      </c>
+      <c r="H99">
+        <v>1128.5114952977215</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>1457.2290046984817</v>
+      </c>
+      <c r="K99">
+        <v>1426.4223504301447</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>4.4121065165996791</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>8.4000000000000909</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>29.650000000000091</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.2833052276559887</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1523.8480559055347</v>
+      </c>
+      <c r="W99">
+        <v>1613.9456569260569</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-90.097601020522234</v>
+      </c>
+      <c r="Y99">
+        <v>-5.8642357221001351</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>889.95</v>
+      </c>
+      <c r="D100">
+        <v>896.75</v>
+      </c>
+      <c r="E100">
+        <v>877.05</v>
+      </c>
+      <c r="F100">
+        <v>880.35</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>884.7166666666667</v>
+      </c>
+      <c r="H100">
+        <v>1006.6140809821941</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1332.6781147654858</v>
+      </c>
+      <c r="K100">
+        <v>1304.3396058901126</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>4.3460904329755623</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.3000000000000682</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>19.700000000000045</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.16751269035533303</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>1424.8483549969908</v>
+      </c>
+      <c r="W100">
+        <v>1559.6052378944971</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-134.75688289750633</v>
+      </c>
+      <c r="Y100">
+        <v>-31.642765157181373</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>894.5</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>889.2</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>886.90000000000009</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>884.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>883.7</v>
+      </c>
+      <c r="D101">
+        <v>885.3</v>
+      </c>
+      <c r="E101">
+        <v>865.55</v>
+      </c>
+      <c r="F101">
+        <v>873</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>874.61666666666667</v>
+      </c>
+      <c r="H101">
+        <v>940.61537382443043</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1233.2607559287112</v>
+      </c>
+      <c r="K101">
+        <v>1206.8308045811987</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>4.2847348845679312</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>7.4500000000000455</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>19.75</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.37721518987342001</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1339.9486080743768</v>
+      </c>
+      <c r="W101">
+        <v>1508.745590643053</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-168.79698256867619</v>
+      </c>
+      <c r="Y101">
+        <v>-59.073608639480341</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>869.9</v>
+      </c>
+      <c r="D102">
+        <v>872</v>
+      </c>
+      <c r="E102">
+        <v>841</v>
+      </c>
+      <c r="F102">
+        <v>844.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>852.63333333333333</v>
+      </c>
+      <c r="H102">
+        <v>896.62435357888194</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1152.9805879445532</v>
+      </c>
+      <c r="K102">
+        <v>1125.5350702298213</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>4.0139315315233226</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>31</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.12580645161290249</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1263.7872837552418</v>
+      </c>
+      <c r="W102">
+        <v>1459.5718431880121</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-195.78455943277027</v>
+      </c>
+      <c r="Y102">
+        <v>-86.415798798138326</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>868.45</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>860.15000000000009</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>856.5</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>852.85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>847.3</v>
+      </c>
+      <c r="D103">
+        <v>849</v>
+      </c>
+      <c r="E103">
+        <v>799</v>
+      </c>
+      <c r="F103">
+        <v>818</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>822</v>
+      </c>
+      <c r="H103">
+        <v>859.31217678944097</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1085.4293461790969</v>
+      </c>
+      <c r="K103">
+        <v>1052.9717212898611</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>3.7317077059355497</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>19</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.38</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1195.2046247159738</v>
+      </c>
+      <c r="W103">
+        <v>1412.0480029518631</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-216.8433782358893</v>
+      </c>
+      <c r="Y103">
+        <v>-112.50131468568853</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>813.2</v>
+      </c>
+      <c r="D104">
+        <v>836</v>
+      </c>
+      <c r="E104">
+        <v>807.4</v>
+      </c>
+      <c r="F104">
+        <v>835</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>826.13333333333333</v>
+      </c>
+      <c r="H104">
+        <v>842.72275506138715</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1030.000602583742</v>
+      </c>
+      <c r="K104">
+        <v>998.40022766989193</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>8.7973865431746106</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>27.600000000000023</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>28.600000000000023</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.96503496503496511</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1139.788528605824</v>
+      </c>
+      <c r="W104">
+        <v>1369.3037064369103</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-229.51517783108625</v>
+      </c>
+      <c r="Y104">
+        <v>-135.90408731476808</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>835.15</v>
+      </c>
+      <c r="D105">
+        <v>857</v>
+      </c>
+      <c r="E105">
+        <v>800.5</v>
+      </c>
+      <c r="F105">
+        <v>810.95</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>822.81666666666661</v>
+      </c>
+      <c r="H105">
+        <v>832.76971086402682</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>991.55602423179926</v>
+      </c>
+      <c r="K105">
+        <v>954.42239929880486</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>8.0484534942947867</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>10.450000000000045</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>56.5</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.18495575221239019</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1089.1979857433896</v>
+      </c>
+      <c r="W105">
+        <v>1327.9441726267687</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-238.7461868833791</v>
+      </c>
+      <c r="Y105">
+        <v>-156.47250722849029</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>850.55000000000007</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>835.40000000000009</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>828.75</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>822.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>810.95</v>
+      </c>
+      <c r="D106">
+        <v>819.65</v>
+      </c>
+      <c r="E106">
+        <v>792.3</v>
+      </c>
+      <c r="F106">
+        <v>809.9</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>807.2833333333333</v>
+      </c>
+      <c r="H106">
+        <v>820.02652209868006</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>953.35468551362169</v>
+      </c>
+      <c r="K106">
+        <v>918.39519945462598</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>8.0112337866099423</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>17.600000000000023</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>27.350000000000023</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.64351005484460722</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1046.2290648597912</v>
+      </c>
+      <c r="W106">
+        <v>1289.5705302099709</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-243.34146535017976</v>
+      </c>
+      <c r="Y106">
+        <v>-173.84629885282817</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>812.4</v>
+      </c>
+      <c r="D107">
+        <v>823</v>
+      </c>
+      <c r="E107">
+        <v>808.1</v>
+      </c>
+      <c r="F107">
+        <v>814</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>815.0333333333333</v>
+      </c>
+      <c r="H107">
+        <v>817.52992771600668</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>924.3869776217058</v>
+      </c>
+      <c r="K107">
+        <v>893.88515513137577</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>10.041748291615663</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>5.8999999999999773</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.3959731543624152</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1010.5015164198232</v>
+      </c>
+      <c r="W107">
+        <v>1254.3430835277509</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-243.84156710792763</v>
+      </c>
+      <c r="Y107">
+        <v>-187.84535250384806</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
